--- a/Moni.xlsx
+++ b/Moni.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuabrooks/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuabrooks/Desktop/Cherry/Moni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C7269C9-411A-654C-B2D5-8370FDE9DC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D31653F-3920-CC42-BD65-DFE9E1F39424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6520" yWindow="1940" windowWidth="28040" windowHeight="17440" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,12 +47,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Acetone</t>
-  </si>
-  <si>
     <t>Heart Rate</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
     <t>Joshua Thomas Brooks</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Temperature</t>
   </si>
   <si>
@@ -81,6 +72,15 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Acetone ppm</t>
+  </si>
+  <si>
+    <t>Pulse</t>
+  </si>
+  <si>
+    <t>Gender (M=1;F=0)</t>
   </si>
 </sst>
 </file>
@@ -116,8 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D1" sqref="D1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,67 +465,101 @@
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="B2" s="1">
+        <v>45508</v>
+      </c>
+      <c r="C2">
+        <v>1952</v>
       </c>
       <c r="D2">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>114</v>
+      </c>
+      <c r="H2">
+        <v>70</v>
+      </c>
+      <c r="I2">
+        <v>83</v>
+      </c>
+      <c r="J2">
+        <v>104</v>
+      </c>
+      <c r="K2">
+        <v>92.6</v>
+      </c>
+      <c r="L2">
+        <v>97</v>
+      </c>
+      <c r="M2">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L2" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}"/>
+  <autoFilter ref="A1:M2" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Moni.xlsx
+++ b/Moni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuabrooks/Desktop/Cherry/Moni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D31653F-3920-CC42-BD65-DFE9E1F39424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEC68B8-EB65-B449-A487-2FAC4B56E251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6520" yWindow="1940" windowWidth="28040" windowHeight="17440" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
   </bookViews>
@@ -74,13 +74,13 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Acetone ppm</t>
-  </si>
-  <si>
     <t>Pulse</t>
   </si>
   <si>
     <t>Gender (M=1;F=0)</t>
+  </si>
+  <si>
+    <t>Acetone ketones ppm</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:M2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,7 +466,7 @@
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -502,7 +502,7 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>114</v>

--- a/Moni.xlsx
+++ b/Moni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuabrooks/Desktop/Cherry/Moni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEC68B8-EB65-B449-A487-2FAC4B56E251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797DD53E-A3DA-D340-9235-49A711DCE2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6520" yWindow="1940" windowWidth="28040" windowHeight="17440" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Patient</t>
   </si>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,6 +558,211 @@
         <v>274</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45508</v>
+      </c>
+      <c r="C3">
+        <v>2130</v>
+      </c>
+      <c r="D3">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>115</v>
+      </c>
+      <c r="H3">
+        <v>72</v>
+      </c>
+      <c r="I3">
+        <v>98</v>
+      </c>
+      <c r="J3">
+        <v>99</v>
+      </c>
+      <c r="K3">
+        <v>97.9</v>
+      </c>
+      <c r="L3">
+        <v>92</v>
+      </c>
+      <c r="M3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45508</v>
+      </c>
+      <c r="C4">
+        <v>2145</v>
+      </c>
+      <c r="D4">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>105</v>
+      </c>
+      <c r="H4">
+        <v>66</v>
+      </c>
+      <c r="I4">
+        <v>94</v>
+      </c>
+      <c r="J4">
+        <v>82</v>
+      </c>
+      <c r="K4">
+        <v>98.2</v>
+      </c>
+      <c r="L4">
+        <v>98</v>
+      </c>
+      <c r="M4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C5">
+        <v>935</v>
+      </c>
+      <c r="D5">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>117</v>
+      </c>
+      <c r="H5">
+        <v>74</v>
+      </c>
+      <c r="I5">
+        <v>96</v>
+      </c>
+      <c r="J5">
+        <v>91</v>
+      </c>
+      <c r="K5">
+        <v>97.5</v>
+      </c>
+      <c r="L5">
+        <v>98</v>
+      </c>
+      <c r="M5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C6">
+        <v>1110</v>
+      </c>
+      <c r="D6">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>115</v>
+      </c>
+      <c r="H6">
+        <v>68</v>
+      </c>
+      <c r="I6">
+        <v>93</v>
+      </c>
+      <c r="J6">
+        <v>137</v>
+      </c>
+      <c r="K6">
+        <v>96.1</v>
+      </c>
+      <c r="L6">
+        <v>98</v>
+      </c>
+      <c r="M6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C7">
+        <v>1357</v>
+      </c>
+      <c r="D7">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>103</v>
+      </c>
+      <c r="H7">
+        <v>61</v>
+      </c>
+      <c r="I7">
+        <v>67</v>
+      </c>
+      <c r="J7">
+        <v>79</v>
+      </c>
+      <c r="K7">
+        <v>98.1</v>
+      </c>
+      <c r="L7">
+        <v>98</v>
+      </c>
+      <c r="M7">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M2" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Moni.xlsx
+++ b/Moni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuabrooks/Desktop/Cherry/Moni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797DD53E-A3DA-D340-9235-49A711DCE2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4030E271-E235-AF44-BE90-D23CE698088B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6520" yWindow="1940" windowWidth="28040" windowHeight="17440" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Patient</t>
   </si>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,6 +763,47 @@
         <v>110</v>
       </c>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C8">
+        <v>1632</v>
+      </c>
+      <c r="D8">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>130</v>
+      </c>
+      <c r="H8">
+        <v>79</v>
+      </c>
+      <c r="I8">
+        <v>105</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>97.7</v>
+      </c>
+      <c r="L8">
+        <v>96</v>
+      </c>
+      <c r="M8">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M2" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Moni.xlsx
+++ b/Moni.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuabrooks/Desktop/Cherry/Moni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4030E271-E235-AF44-BE90-D23CE698088B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5872E842-88B9-674A-B347-5353DDF9EB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="1940" windowWidth="28040" windowHeight="17440" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
+    <workbookView xWindow="6520" yWindow="1940" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="raw data" sheetId="1" r:id="rId1"/>
+    <sheet name="linear regression" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'raw data'!$A$1:$M$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Patient</t>
   </si>
@@ -81,13 +82,19 @@
   </si>
   <si>
     <t>Acetone ketones ppm</t>
+  </si>
+  <si>
+    <t>Interstitial Fluid = -0.0181 - 0.4819 * Acetone ketones ppm - 14.4261 * Blood Pressure Top + 36.5203 * Blood Pressure Bottom - 7.5521 * Pulse + 2.5154 * Heart Rate - 14.2426 * Temperature + 10.9600 * Pulse Oxygen</t>
+  </si>
+  <si>
+    <t>Interstital Fluid Prediction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,13 +102,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,9 +134,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,11 +475,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -476,7 +496,7 @@
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -558,7 +578,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -599,7 +619,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -640,7 +660,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -681,7 +701,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -722,7 +742,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -763,7 +783,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -808,4 +828,127 @@
   <autoFilter ref="A1:M2" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB120DF0-DACE-1F43-B331-5D01165AC0D2}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>125</v>
+      </c>
+      <c r="F2">
+        <v>77</v>
+      </c>
+      <c r="G2">
+        <v>106</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>97.3</v>
+      </c>
+      <c r="J2">
+        <v>96</v>
+      </c>
+      <c r="K2" s="3">
+        <f>B3+B4*D2+B5*E2+B6*F2+B7*G2+B8*H2+B9*I2+B10*J2</f>
+        <v>126.15491999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3">
+        <v>-1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4">
+        <v>-0.4819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5">
+        <v>-14.4261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6">
+        <v>36.520299999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7">
+        <v>-7.5521000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8">
+        <v>2.5154000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9">
+        <v>-14.242599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Moni.xlsx
+++ b/Moni.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuabrooks/Desktop/Cherry/Moni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5872E842-88B9-674A-B347-5353DDF9EB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1D76C5-6676-6A4B-A10E-3E53A97962BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="1940" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
+    <workbookView xWindow="2600" yWindow="1980" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
     <sheet name="linear regression" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'raw data'!$A$1:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'raw data'!$A$1:$M$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Patient</t>
   </si>
@@ -84,10 +84,10 @@
     <t>Acetone ketones ppm</t>
   </si>
   <si>
-    <t>Interstitial Fluid = -0.0181 - 0.4819 * Acetone ketones ppm - 14.4261 * Blood Pressure Top + 36.5203 * Blood Pressure Bottom - 7.5521 * Pulse + 2.5154 * Heart Rate - 14.2426 * Temperature + 10.9600 * Pulse Oxygen</t>
-  </si>
-  <si>
     <t>Interstital Fluid Prediction</t>
+  </si>
+  <si>
+    <t>Interstitial Fluid = -196383.1010 + 201.9364 * Acetone ketones ppm - 143.6046 * Blood Pressure Top + 363.5279 * Blood Pressure Bottom - 89.0195 * Pulse + 90.2147 * Heart Rate + 1535.7889 * Temperature + 374.2838 * Pulse Oxygen</t>
   </si>
 </sst>
 </file>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:L6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -824,8 +824,49 @@
         <v>127</v>
       </c>
     </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C9">
+        <v>1703</v>
+      </c>
+      <c r="D9">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>123</v>
+      </c>
+      <c r="H9">
+        <v>76</v>
+      </c>
+      <c r="I9">
+        <v>96</v>
+      </c>
+      <c r="J9">
+        <v>77</v>
+      </c>
+      <c r="K9">
+        <v>98.2</v>
+      </c>
+      <c r="L9">
+        <v>97</v>
+      </c>
+      <c r="M9">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M2" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}"/>
+  <autoFilter ref="A1:M9" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -835,7 +876,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -873,79 +914,79 @@
         <v>7</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="D2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F2">
+        <v>76</v>
+      </c>
+      <c r="G2">
+        <v>96</v>
+      </c>
+      <c r="H2">
         <v>77</v>
       </c>
-      <c r="G2">
-        <v>106</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
       <c r="I2">
-        <v>97.3</v>
+        <v>98.2</v>
       </c>
       <c r="J2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K2" s="3">
         <f>B3+B4*D2+B5*E2+B6*F2+B7*G2+B8*H2+B9*I2+B10*J2</f>
-        <v>126.15491999999995</v>
+        <v>111.9940799999822</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3">
-        <v>-1.8100000000000002E-2</v>
+        <v>-196383.101</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4">
-        <v>-0.4819</v>
+        <v>201.93639999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5">
-        <v>-14.4261</v>
+        <v>-143.6046</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6">
-        <v>36.520299999999999</v>
+        <v>363.52789999999999</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7">
-        <v>-7.5521000000000003</v>
+        <v>-89.019499999999994</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8">
-        <v>2.5154000000000001</v>
+        <v>90.214699999999993</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="B9">
-        <v>-14.242599999999999</v>
+        <v>1535.7889</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10">
-        <v>10.96</v>
+        <v>374.28379999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="17">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Moni.xlsx
+++ b/Moni.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuabrooks/Desktop/Cherry/Moni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1D76C5-6676-6A4B-A10E-3E53A97962BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CE2C87-6D6D-1747-A020-BE0C24E92644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="1980" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
+    <workbookView xWindow="12240" yWindow="1400" windowWidth="28040" windowHeight="17540" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
-    <sheet name="linear regression" sheetId="2" r:id="rId2"/>
+    <sheet name="Multivariate Linear Regression" sheetId="2" r:id="rId2"/>
+    <sheet name="polynomial regression" sheetId="4" r:id="rId3"/>
+    <sheet name="ridge regression" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'raw data'!$A$1:$M$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'raw data'!$A$1:$M$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>Patient</t>
   </si>
@@ -87,14 +90,68 @@
     <t>Interstital Fluid Prediction</t>
   </si>
   <si>
-    <t>Interstitial Fluid = -196383.1010 + 201.9364 * Acetone ketones ppm - 143.6046 * Blood Pressure Top + 363.5279 * Blood Pressure Bottom - 89.0195 * Pulse + 90.2147 * Heart Rate + 1535.7889 * Temperature + 374.2838 * Pulse Oxygen</t>
+    <t>Interstitial Fluid = -429.8641 + 0.5220 * Acetone ketones ppm - 10.6671 * Blood Pressure Top + 29.1480 * Blood Pressure Bottom - 6.4108 * Pulse + 2.2749 * Heart Rate - 10.2402 * Temperature + 11.3828 * Pulse Oxygen</t>
+  </si>
+  <si>
+    <t>Ridge Regression</t>
+  </si>
+  <si>
+    <t>Given the complexity and the multivariate nature of the data you provided, here are a few analysis types that could potentially be more suitable than simple linear regression for predicting interstitial fluids:</t>
+  </si>
+  <si>
+    <t>Polynomial Regression (Multivariate):</t>
+  </si>
+  <si>
+    <t>This approach was demonstrated earlier. It can model non-linear relationships between the variables but might become complex and hard to interpret with a large number of features and higher-degree polynomials.</t>
+  </si>
+  <si>
+    <t>Ridge Regression (L2 Regularization):</t>
+  </si>
+  <si>
+    <t>This type of regression helps to prevent overfitting by adding a penalty for large coefficients. It’s particularly useful when there are many predictors or multicollinearity.</t>
+  </si>
+  <si>
+    <t>Lasso Regression (L1 Regularization):</t>
+  </si>
+  <si>
+    <t>Similar to ridge regression but can shrink some coefficients to zero, effectively performing variable selection. This can be useful for high-dimensional data.</t>
+  </si>
+  <si>
+    <t>Elastic Net Regression:</t>
+  </si>
+  <si>
+    <t>A combination of L1 and L2 regularization that can balance between the properties of ridge and lasso regression.</t>
+  </si>
+  <si>
+    <t>Support Vector Regression (SVR):</t>
+  </si>
+  <si>
+    <t>This technique uses the principles of support vector machines and is effective in high-dimensional spaces. It can be adapted for non-linear regression using kernel functions.</t>
+  </si>
+  <si>
+    <t>Random Forest Regression:</t>
+  </si>
+  <si>
+    <t>An ensemble method that uses multiple decision trees and averages their predictions. It can capture non-linear relationships and interactions between variables without requiring the specification of a functional form.</t>
+  </si>
+  <si>
+    <t>Gradient Boosting Regression:</t>
+  </si>
+  <si>
+    <t>Another ensemble method that builds models sequentially, each one correcting the errors of the previous one. This method often provides high predictive accuracy.</t>
+  </si>
+  <si>
+    <t>Neural Networks:</t>
+  </si>
+  <si>
+    <t>For complex, high-dimensional data, neural networks can capture intricate patterns and relationships. However, they require more data and computational power.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,6 +163,21 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -134,11 +206,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -545,7 +619,7 @@
         <v>45508</v>
       </c>
       <c r="C2">
-        <v>1952</v>
+        <v>2130</v>
       </c>
       <c r="D2">
         <v>33</v>
@@ -554,28 +628,28 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J2">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K2">
-        <v>92.6</v>
+        <v>97.9</v>
       </c>
       <c r="L2">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M2">
-        <v>274</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -586,7 +660,7 @@
         <v>45508</v>
       </c>
       <c r="C3">
-        <v>2130</v>
+        <v>2145</v>
       </c>
       <c r="D3">
         <v>33</v>
@@ -595,28 +669,28 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H3">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I3">
+        <v>94</v>
+      </c>
+      <c r="J3">
+        <v>82</v>
+      </c>
+      <c r="K3">
+        <v>98.2</v>
+      </c>
+      <c r="L3">
         <v>98</v>
       </c>
-      <c r="J3">
-        <v>99</v>
-      </c>
-      <c r="K3">
-        <v>97.9</v>
-      </c>
-      <c r="L3">
-        <v>92</v>
-      </c>
       <c r="M3">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -624,10 +698,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>45508</v>
+        <v>45509</v>
       </c>
       <c r="C4">
-        <v>2145</v>
+        <v>935</v>
       </c>
       <c r="D4">
         <v>33</v>
@@ -636,28 +710,28 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="H4">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I4">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J4">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K4">
-        <v>98.2</v>
+        <v>97.5</v>
       </c>
       <c r="L4">
         <v>98</v>
       </c>
       <c r="M4">
-        <v>65</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -668,7 +742,7 @@
         <v>45509</v>
       </c>
       <c r="C5">
-        <v>935</v>
+        <v>1110</v>
       </c>
       <c r="D5">
         <v>33</v>
@@ -677,28 +751,28 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H5">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I5">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J5">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="K5">
-        <v>97.5</v>
+        <v>96.1</v>
       </c>
       <c r="L5">
         <v>98</v>
       </c>
       <c r="M5">
-        <v>203</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -709,7 +783,7 @@
         <v>45509</v>
       </c>
       <c r="C6">
-        <v>1110</v>
+        <v>1357</v>
       </c>
       <c r="D6">
         <v>33</v>
@@ -718,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H6">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I6">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="J6">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="K6">
-        <v>96.1</v>
+        <v>98.1</v>
       </c>
       <c r="L6">
         <v>98</v>
       </c>
       <c r="M6">
-        <v>172</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -750,7 +824,7 @@
         <v>45509</v>
       </c>
       <c r="C7">
-        <v>1357</v>
+        <v>1632</v>
       </c>
       <c r="D7">
         <v>33</v>
@@ -759,28 +833,28 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="H7">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="I7">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="J7">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="K7">
-        <v>98.1</v>
+        <v>97.7</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -791,7 +865,7 @@
         <v>45509</v>
       </c>
       <c r="C8">
-        <v>1632</v>
+        <v>1703</v>
       </c>
       <c r="D8">
         <v>33</v>
@@ -800,28 +874,28 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I8">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J8">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="K8">
-        <v>97.7</v>
+        <v>98.2</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -832,7 +906,7 @@
         <v>45509</v>
       </c>
       <c r="C9">
-        <v>1703</v>
+        <v>1730</v>
       </c>
       <c r="D9">
         <v>33</v>
@@ -841,42 +915,412 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="H9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="J9">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="K9">
-        <v>98.2</v>
+        <v>97.9</v>
       </c>
       <c r="L9">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M9">
         <v>112</v>
       </c>
     </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C10">
+        <v>1739</v>
+      </c>
+      <c r="D10">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>126</v>
+      </c>
+      <c r="H10">
+        <v>82</v>
+      </c>
+      <c r="I10">
+        <v>110</v>
+      </c>
+      <c r="J10">
+        <v>101</v>
+      </c>
+      <c r="K10">
+        <v>97.6</v>
+      </c>
+      <c r="L10">
+        <v>97</v>
+      </c>
+      <c r="M10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C11">
+        <v>2009</v>
+      </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>115</v>
+      </c>
+      <c r="H11">
+        <v>73</v>
+      </c>
+      <c r="I11">
+        <v>63</v>
+      </c>
+      <c r="J11">
+        <v>87</v>
+      </c>
+      <c r="K11">
+        <v>97.7</v>
+      </c>
+      <c r="L11">
+        <v>97</v>
+      </c>
+      <c r="M11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C12">
+        <v>2054</v>
+      </c>
+      <c r="D12">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>115</v>
+      </c>
+      <c r="H12">
+        <v>72</v>
+      </c>
+      <c r="I12">
+        <v>75</v>
+      </c>
+      <c r="J12">
+        <v>69</v>
+      </c>
+      <c r="K12">
+        <v>97.9</v>
+      </c>
+      <c r="L12">
+        <v>97</v>
+      </c>
+      <c r="M12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45510</v>
+      </c>
+      <c r="C13">
+        <v>918</v>
+      </c>
+      <c r="D13">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>105</v>
+      </c>
+      <c r="H13">
+        <v>69</v>
+      </c>
+      <c r="I13">
+        <v>76</v>
+      </c>
+      <c r="J13">
+        <v>49</v>
+      </c>
+      <c r="K13">
+        <v>97.1</v>
+      </c>
+      <c r="L13">
+        <v>97</v>
+      </c>
+      <c r="M13">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45510</v>
+      </c>
+      <c r="C14">
+        <v>1226</v>
+      </c>
+      <c r="D14">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>115</v>
+      </c>
+      <c r="H14">
+        <v>76</v>
+      </c>
+      <c r="I14">
+        <v>79</v>
+      </c>
+      <c r="J14">
+        <v>76</v>
+      </c>
+      <c r="K14">
+        <v>96.4</v>
+      </c>
+      <c r="L14">
+        <v>97</v>
+      </c>
+      <c r="M14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45510</v>
+      </c>
+      <c r="C15">
+        <v>1611</v>
+      </c>
+      <c r="D15">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>131</v>
+      </c>
+      <c r="H15">
+        <v>87</v>
+      </c>
+      <c r="I15">
+        <v>85</v>
+      </c>
+      <c r="J15">
+        <v>88</v>
+      </c>
+      <c r="K15">
+        <v>98.6</v>
+      </c>
+      <c r="L15">
+        <v>98</v>
+      </c>
+      <c r="M15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45511</v>
+      </c>
+      <c r="C16">
+        <v>1403</v>
+      </c>
+      <c r="D16">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>126</v>
+      </c>
+      <c r="H16">
+        <v>71</v>
+      </c>
+      <c r="I16">
+        <v>82</v>
+      </c>
+      <c r="J16">
+        <v>82</v>
+      </c>
+      <c r="K16">
+        <v>99.2</v>
+      </c>
+      <c r="L16">
+        <v>97</v>
+      </c>
+      <c r="M16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45511</v>
+      </c>
+      <c r="C17">
+        <v>1430</v>
+      </c>
+      <c r="D17">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>131</v>
+      </c>
+      <c r="H17">
+        <v>77</v>
+      </c>
+      <c r="I17">
+        <v>84</v>
+      </c>
+      <c r="J17">
+        <v>86</v>
+      </c>
+      <c r="K17">
+        <v>97.1</v>
+      </c>
+      <c r="L17">
+        <v>98</v>
+      </c>
+      <c r="M17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45511</v>
+      </c>
+      <c r="C18">
+        <v>1500</v>
+      </c>
+      <c r="D18">
+        <v>33</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>116</v>
+      </c>
+      <c r="H18" s="4">
+        <v>79</v>
+      </c>
+      <c r="I18" s="4">
+        <v>98</v>
+      </c>
+      <c r="J18" s="4">
+        <v>89</v>
+      </c>
+      <c r="K18" s="4">
+        <v>99.2</v>
+      </c>
+      <c r="L18" s="4">
+        <v>97</v>
+      </c>
+      <c r="M18" s="4">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M9" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}"/>
+  <autoFilter ref="A1:M8" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB120DF0-DACE-1F43-B331-5D01165AC0D2}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -884,12 +1328,185 @@
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>116</v>
+      </c>
+      <c r="C2" s="4">
+        <v>79</v>
+      </c>
+      <c r="D2" s="4">
+        <v>98</v>
+      </c>
+      <c r="E2" s="4">
+        <v>89</v>
+      </c>
+      <c r="F2" s="4">
+        <v>99.2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>97</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <f>(-6.8537 * A2) + (-1.5829 * B2) + (2.8971 * C2) + (0.002 * D2) + (0.4606 * E2) + (-10.5783 * F2) + (-0.0803 * G2) + 1117.6774</f>
+        <v>133.25743999999986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="18" spans="1:1" ht="17">
+      <c r="A18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C77AE60-8F81-D243-B3E7-69BF1CE319B2}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>131</v>
+      </c>
+      <c r="C1">
+        <v>87</v>
+      </c>
+      <c r="D1">
+        <v>85</v>
+      </c>
+      <c r="E1">
+        <v>88</v>
+      </c>
+      <c r="F1">
+        <v>98.6</v>
+      </c>
+      <c r="G1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <f xml:space="preserve"> 43.26767
++ (-0.00128)
++ (-0.00578 * A1)
++ (0.01454 * B1)
++ (0.00235 * C1)
++ (0.00438 * D1)
++ (0.00026 * E1)
++ (-0.00337 * F1)
++ (0.00006 * G1)
++ (-0.04374 * A1^2)
++ (0.07755 * A1 * B1)
++ (0.13157 * A1 * C1)
++ (-0.13058 * A1 * D1)
++ (0.0934 * A1 * E1)
++ (-0.05419 * A1 * F1)
++ (-0.12348 * A1 * G1)
++ (-0.46234 * B1^2)
++ (-0.39213 * B1 * C1)
++ (0.34664 * B1 * D1)
++ (0.41242 * B1 * E1)
++ (0.24739 * B1 * F1)
++ (0.46061 * B1 * G1)
++ (-0.39307 * C1^2)
++ (0.28481 * C1 * D1)
++ (0.31238 * C1 * E1)
++ (0.22803 * C1 * F1)
++ (0.29191 * C1 * G1)
++ (-0.23613 * D1^2)
++ (-0.32532 * D1 * E1)
++ (0.0424 * D1 * F1)
++ (0.03085 * D1 * G1)
++ (-0.00207 * E1^2)
++ (-0.13304 * E1 * F1)
++ (-0.2641 * E1 * G1)
++ (-0.11414 * F1^2)
++ (-0.24973 * F1 * G1)
++ (-0.09189 * G1^2)</f>
+        <v>-45.37778039999705</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD3305F-9573-F84A-A1C5-F37085D02126}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="D1" t="s">
@@ -918,75 +1535,180 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>123</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>105</v>
+      </c>
+      <c r="F2" s="4">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4">
         <v>76</v>
       </c>
-      <c r="G2">
-        <v>96</v>
-      </c>
-      <c r="H2">
-        <v>77</v>
-      </c>
-      <c r="I2">
-        <v>98.2</v>
-      </c>
-      <c r="J2">
+      <c r="H2" s="4">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4">
+        <v>97.1</v>
+      </c>
+      <c r="J2" s="4">
         <v>97</v>
       </c>
       <c r="K2" s="3">
         <f>B3+B4*D2+B5*E2+B6*F2+B7*G2+B8*H2+B9*I2+B10*J2</f>
-        <v>111.9940799999822</v>
+        <v>197.44787999999994</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3">
-        <v>-196383.101</v>
+        <v>-429.86410000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4">
-        <v>201.93639999999999</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5">
-        <v>-143.6046</v>
+        <v>-10.6671</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6">
-        <v>363.52789999999999</v>
+        <v>29.148</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7">
-        <v>-89.019499999999994</v>
+        <v>-6.4108000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8">
-        <v>90.214699999999993</v>
+        <v>2.2749000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="B9">
-        <v>1535.7889</v>
+        <v>-10.2402</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10">
-        <v>374.28379999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="17">
-      <c r="A16" s="2" t="s">
+        <v>11.3828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17">
+      <c r="A14" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C1401-265E-EE41-947A-D7B34EA2F344}">
+  <dimension ref="A1:A33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Moni.xlsx
+++ b/Moni.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuabrooks/Desktop/Cherry/Moni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CE2C87-6D6D-1747-A020-BE0C24E92644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4007B5B-0228-F148-B1AB-67112F0E03ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="1400" windowWidth="28040" windowHeight="17540" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
-    <sheet name="Multivariate Linear Regression" sheetId="2" r:id="rId2"/>
-    <sheet name="polynomial regression" sheetId="4" r:id="rId3"/>
-    <sheet name="ridge regression" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Multi Linear Regression" sheetId="2" r:id="rId2"/>
+    <sheet name="ridge regression" sheetId="4" r:id="rId3"/>
+    <sheet name="polynomial regression" sheetId="3" r:id="rId4"/>
+    <sheet name="lasso regression" sheetId="7" r:id="rId5"/>
+    <sheet name="elastic net regression" sheetId="8" r:id="rId6"/>
+    <sheet name="Avg" sheetId="6" r:id="rId7"/>
+    <sheet name="Models" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'raw data'!$A$1:$M$8</definedName>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
   <si>
     <t>Patient</t>
   </si>
@@ -85,15 +88,6 @@
   </si>
   <si>
     <t>Acetone ketones ppm</t>
-  </si>
-  <si>
-    <t>Interstital Fluid Prediction</t>
-  </si>
-  <si>
-    <t>Interstitial Fluid = -429.8641 + 0.5220 * Acetone ketones ppm - 10.6671 * Blood Pressure Top + 29.1480 * Blood Pressure Bottom - 6.4108 * Pulse + 2.2749 * Heart Rate - 10.2402 * Temperature + 11.3828 * Pulse Oxygen</t>
-  </si>
-  <si>
-    <t>Ridge Regression</t>
   </si>
   <si>
     <t>Given the complexity and the multivariate nature of the data you provided, here are a few analysis types that could potentially be more suitable than simple linear regression for predicting interstitial fluids:</t>
@@ -151,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,19 +173,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="-webkit-standard"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -210,9 +203,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,10 +540,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}">
-  <dimension ref="A1:M18"/>
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1283,28 +1279,192 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>116</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>79</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>98</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>89</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>99.2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>97</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45511</v>
+      </c>
+      <c r="C19">
+        <v>1600</v>
+      </c>
+      <c r="D19">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>119</v>
+      </c>
+      <c r="H19">
+        <v>78</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>91</v>
+      </c>
+      <c r="K19">
+        <v>96.1</v>
+      </c>
+      <c r="L19">
+        <v>98</v>
+      </c>
+      <c r="M19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45511</v>
+      </c>
+      <c r="C20">
+        <v>1650</v>
+      </c>
+      <c r="D20">
+        <v>33</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>126</v>
+      </c>
+      <c r="H20">
+        <v>78</v>
+      </c>
+      <c r="I20">
+        <v>86</v>
+      </c>
+      <c r="J20">
+        <v>97</v>
+      </c>
+      <c r="K20">
+        <v>97.5</v>
+      </c>
+      <c r="L20">
+        <v>98</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45511</v>
+      </c>
+      <c r="C21">
+        <v>1711</v>
+      </c>
+      <c r="D21">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>120</v>
+      </c>
+      <c r="H21">
+        <v>71</v>
+      </c>
+      <c r="I21">
+        <v>92</v>
+      </c>
+      <c r="J21">
+        <v>90</v>
+      </c>
+      <c r="K21">
+        <v>98</v>
+      </c>
+      <c r="L21">
+        <v>97</v>
+      </c>
+      <c r="M21">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C22">
+        <v>915</v>
+      </c>
+      <c r="D22">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>129</v>
+      </c>
+      <c r="H22">
+        <v>68</v>
+      </c>
+      <c r="I22">
+        <v>84</v>
+      </c>
+      <c r="J22">
+        <v>65</v>
+      </c>
+      <c r="K22">
+        <v>97.1</v>
+      </c>
+      <c r="L22">
+        <v>97</v>
+      </c>
+      <c r="M22">
         <v>172</v>
       </c>
     </row>
@@ -1317,10 +1477,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB120DF0-DACE-1F43-B331-5D01165AC0D2}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1355,33 +1518,33 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>116</v>
-      </c>
-      <c r="C2" s="4">
-        <v>79</v>
-      </c>
-      <c r="D2" s="4">
-        <v>98</v>
-      </c>
-      <c r="E2" s="4">
-        <v>89</v>
-      </c>
-      <c r="F2" s="4">
-        <v>99.2</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="B2">
+        <v>129</v>
+      </c>
+      <c r="C2">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <v>84</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>97.1</v>
+      </c>
+      <c r="G2">
         <v>97</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <f>(-6.8537 * A2) + (-1.5829 * B2) + (2.8971 * C2) + (0.002 * D2) + (0.4606 * E2) + (-10.5783 * F2) + (-0.0803 * G2) + 1117.6774</f>
-        <v>133.25743999999986</v>
+        <f xml:space="preserve"> 1267.57 - 10.57 * A2 - 1.2 * B2 + 1.62 * C2 + 0.15 * D2 + 0.24 * E2 - 6.33 * F2 - 5.24 * G2</f>
+        <v>107.06699999999984</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17">
@@ -1397,100 +1560,76 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C77AE60-8F81-D243-B3E7-69BF1CE319B2}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="B1">
-        <v>131</v>
-      </c>
-      <c r="C1">
-        <v>87</v>
-      </c>
-      <c r="D1">
-        <v>85</v>
-      </c>
-      <c r="E1">
-        <v>88</v>
-      </c>
-      <c r="F1">
-        <v>98.6</v>
-      </c>
-      <c r="G1">
-        <v>98</v>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <f xml:space="preserve"> 43.26767
-+ (-0.00128)
-+ (-0.00578 * A1)
-+ (0.01454 * B1)
-+ (0.00235 * C1)
-+ (0.00438 * D1)
-+ (0.00026 * E1)
-+ (-0.00337 * F1)
-+ (0.00006 * G1)
-+ (-0.04374 * A1^2)
-+ (0.07755 * A1 * B1)
-+ (0.13157 * A1 * C1)
-+ (-0.13058 * A1 * D1)
-+ (0.0934 * A1 * E1)
-+ (-0.05419 * A1 * F1)
-+ (-0.12348 * A1 * G1)
-+ (-0.46234 * B1^2)
-+ (-0.39213 * B1 * C1)
-+ (0.34664 * B1 * D1)
-+ (0.41242 * B1 * E1)
-+ (0.24739 * B1 * F1)
-+ (0.46061 * B1 * G1)
-+ (-0.39307 * C1^2)
-+ (0.28481 * C1 * D1)
-+ (0.31238 * C1 * E1)
-+ (0.22803 * C1 * F1)
-+ (0.29191 * C1 * G1)
-+ (-0.23613 * D1^2)
-+ (-0.32532 * D1 * E1)
-+ (0.0424 * D1 * F1)
-+ (0.03085 * D1 * G1)
-+ (-0.00207 * E1^2)
-+ (-0.13304 * E1 * F1)
-+ (-0.2641 * E1 * G1)
-+ (-0.11414 * F1^2)
-+ (-0.24973 * F1 * G1)
-+ (-0.09189 * G1^2)</f>
-        <v>-45.37778039999705</v>
+      <c r="B2">
+        <v>129</v>
+      </c>
+      <c r="C2">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <v>84</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>97.1</v>
+      </c>
+      <c r="G2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="A6" s="5">
+        <f xml:space="preserve"> -5554.84 - 0.018 * A2 + 0.001 * B2 - 0.019 * C2 + 0.023 * D2 + 0.005 * E2 - 0.005 * F2 + 0.004 * G2 - 2.207 * (A2^2) + 1.421 * (A2 * B2) + 2.339 * (A2 * C2) - 0.248 * (A2 * D2) + 2.392 * (A2 * E2) - 2.291 * (A2 * F2) - 3.174 * (A2 * G2) - 0.821 * (B2^2) + 1.861 * (B2 * C2) - 0.725 * (B2 * D2) + 0.089 * (B2 * E2) + 0.491 * (B2 * F2) + 0.678 * (B2 * G2) - 1.101 * (C2^2) + 0.488 * (C2 * D2) - 0.638 * (C2 * E2) - 0.072 * (C2 * F2) - 0.535 * (C2 * G2) + 0.269 * (D2^2) - 0.009 * (D2 * E2) + 0.449 * (D2 * F2) - 0.374 * (D2 * G2) + 0.224 * (E2^2) + 2.705 * (E2 * F2) - 2.83 * (E2 * G2) - 1.416 * (F2^2) - 0.044 * (F2 * G2) + 1.68 * (G2^2)</f>
+        <v>71.201340000003256</v>
       </c>
     </row>
   </sheetData>
@@ -1500,115 +1639,111 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD3305F-9573-F84A-A1C5-F37085D02126}">
-  <dimension ref="A1:K14"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:J2"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="D2" s="4">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4">
-        <v>105</v>
-      </c>
-      <c r="F2" s="4">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4">
-        <v>76</v>
-      </c>
-      <c r="H2" s="4">
-        <v>49</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="B2">
+        <v>129</v>
+      </c>
+      <c r="C2">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <v>84</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="F2">
         <v>97.1</v>
       </c>
-      <c r="J2" s="4">
+      <c r="G2">
         <v>97</v>
       </c>
-      <c r="K2" s="3">
-        <f>B3+B4*D2+B5*E2+B6*F2+B7*G2+B8*H2+B9*I2+B10*J2</f>
-        <v>197.44787999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="B3">
-        <v>-429.86410000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="B4">
-        <v>0.52200000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5">
-        <v>-10.6671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6">
-        <v>29.148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7">
-        <v>-6.4108000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8">
-        <v>2.2749000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9">
-        <v>-10.2402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10">
-        <v>11.3828</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="17">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <f xml:space="preserve"> -5854.11
++ 0.065 * A2
+- 0.051 * B2
+- 0.062 * C2
++ 0.023 * D2
+- 0.006 * E2
++ 0.003 * F2
++ 0.014 * G2
+- 2.263 * (A2^2)
++ 1.18 * (A2 * B2)
++ 2.649 * (A2 * C2)
+- 0.207 * (A2 * D2)
++ 2.631 * (A2 * E2)
+- 2.429 * (A2 * F2)
+- 3.242 * (A2 * G2)
+- 0.835 * (B2^2)
++ 1.885 * (B2 * C2)
+- 0.752 * (B2 * D2)
++ 0.06 * (B2 * E2)
++ 0.831 * (B2 * F2)
++ 0.413 * (B2 * G2)
+- 1.133 * (C2^2)
++ 0.486 * (C2 * D2)
+- 0.564 * (C2 * E2)
+- 0.246 * (C2 * F2)
+- 0.418 * (C2 * G2)
++ 0.288 * (D2^2)
+- 0.008 * (D2 * E2)
++ 0.704 * (D2 * F2)
+- 0.631 * (D2 * G2)
++ 0.234 * (E2^2)
++ 2.344 * (E2 * F2)
+- 2.516 * (E2 * G2)
+- 1.032 * (F2^2)
+- 0.971 * (F2 * G2)
++ 2.256 * (G2^2)</f>
+        <v>94.329380000002857</v>
       </c>
     </row>
   </sheetData>
@@ -1617,98 +1752,300 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C1401-265E-EE41-947A-D7B34EA2F344}">
-  <dimension ref="A1:A33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716FC905-6156-7D46-BA6F-D64140BE7943}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A33"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>129</v>
+      </c>
+      <c r="C2">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <v>84</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>97.1</v>
+      </c>
+      <c r="G2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18">
+      <c r="A5" s="5">
+        <f xml:space="preserve"> 339.52 + 64.935 * A2 - 2.635 * B2 - 9.645 * C2 + 8.444 * D2 + 6.872 * E2 + 0 * F2 - 0 * G2 - 4.46 * (A2^2) - 0.148 * (A2 * B2) + 4.609 * (A2 * C2) - 0.978 * (A2 * D2) + 1.65 * (A2 * E2) - 1.74 * (A2 * F2) - 2.801 * (A2 * G2) - 0.038 * (B2^2) + 0.182 * (B2 * C2) - 0.328 * (B2 * D2) - 0.002 * (B2 * E2) + 0.182 * (B2 * F2) + 0.098 * (B2 * G2) + 0.221 * (C2^2) + 0.036 * (C2 * D2) - 0.057 * (C2 * E2) - 0.442 * (C2 * F2) - 0.157 * (C2 * G2) + 0.102 * (D2^2) - 0.158 * (D2 * E2) + 0.438 * (D2 * F2) - 0.141 * (D2 * G2) + 0.097 * (E2^2) + 0.043 * (E2 * F2) - 0.165 * (E2 * G2) + 0.561 * (F2^2) - 1.332 * (F2 * G2) + 0.779 * (G2^2)</f>
+        <v>284.82950999999957</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5680C9-9048-0541-9822-FF3CBE345898}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>129</v>
+      </c>
+      <c r="C2">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <v>84</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>97.1</v>
+      </c>
+      <c r="G2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <f xml:space="preserve"> 56.98
++ 0.811 * A2
+- 1.779 * B2
+- 2.451 * C2
++ 2.687 * D2
++ 3.386 * E2
++ 0 * F2
+- 0 * G2
+- 3.497 * (A2^2)
+- 0.061 * (A2 * B2)
++ 4.897 * (A2 * C2)
+- 0.739 * (A2 * D2)
++ 1.431 * (A2 * E2)
+- 1.358 * (A2 * F2)
+- 2.935 * (A2 * G2)
+- 0.035 * (B2^2)
++ 0.188 * (B2 * C2)
+- 0.352 * (B2 * D2)
++ 0.02 * (B2 * E2)
++ 0.143 * (B2 * F2)
++ 0.116 * (B2 * G2)
++ 0.196 * (C2^2)
++ 0.04 * (C2 * D2)
+- 0.039 * (C2 * E2)
+- 0.488 * (C2 * F2)
+- 0.18 * (C2 * G2)
++ 0.104 * (D2^2)
+- 0.111 * (D2 * E2)
++ 0.489 * (D2 * F2)
+- 0.159 * (D2 * G2)
++ 0.081 * (E2^2)
++ 0.034 * (E2 * F2)
+- 0.168 * (E2 * G2)
++ 0.565 * (F2^2)
+- 1.266 * (F2 * G2)
++ 0.782 * (G2^2)</f>
+        <v>268.17274999999972</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071287CB-E750-7E4E-808D-2BD464F134BF}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1">
+        <f>AVERAGE('Multi Linear Regression'!A4,'ridge regression'!A6,'polynomial regression'!A5,'lasso regression'!A5,'elastic net regression'!A5)</f>
+        <v>165.11999600000104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C1401-265E-EE41-947A-D7B34EA2F344}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:A33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="5" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="4" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="4" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Moni.xlsx
+++ b/Moni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuabrooks/Desktop/Cherry/Moni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4007B5B-0228-F148-B1AB-67112F0E03ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66089F98-8964-A84B-9655-2DA5F00A2CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20520" activeTab="1" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="31">
   <si>
     <t>Patient</t>
   </si>
@@ -543,10 +543,11 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1468,6 +1469,129 @@
         <v>172</v>
       </c>
     </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C23">
+        <v>1307</v>
+      </c>
+      <c r="D23">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>126</v>
+      </c>
+      <c r="H23">
+        <v>81</v>
+      </c>
+      <c r="I23">
+        <v>95</v>
+      </c>
+      <c r="J23">
+        <v>92</v>
+      </c>
+      <c r="K23">
+        <v>94.6</v>
+      </c>
+      <c r="L23">
+        <v>99</v>
+      </c>
+      <c r="M23">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C24">
+        <v>1600</v>
+      </c>
+      <c r="D24">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>121</v>
+      </c>
+      <c r="H24">
+        <v>92</v>
+      </c>
+      <c r="I24">
+        <v>82</v>
+      </c>
+      <c r="J24">
+        <v>106</v>
+      </c>
+      <c r="K24">
+        <v>97.8</v>
+      </c>
+      <c r="L24">
+        <v>97</v>
+      </c>
+      <c r="M24">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C25">
+        <v>1620</v>
+      </c>
+      <c r="D25">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>124</v>
+      </c>
+      <c r="H25">
+        <v>71</v>
+      </c>
+      <c r="I25">
+        <v>87</v>
+      </c>
+      <c r="J25">
+        <v>79</v>
+      </c>
+      <c r="K25">
+        <v>95.7</v>
+      </c>
+      <c r="L25">
+        <v>98</v>
+      </c>
+      <c r="M25">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M8" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1482,12 +1606,13 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -1519,32 +1644,45 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E2">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F2">
-        <v>97.1</v>
+        <v>95.7</v>
       </c>
       <c r="G2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <f xml:space="preserve"> 1267.57 - 10.57 * A2 - 1.2 * B2 + 1.62 * C2 + 0.15 * D2 + 0.24 * E2 - 6.33 * F2 - 5.24 * G2</f>
-        <v>107.06699999999984</v>
+        <f>1563.69547034152
++ -5.65022334933917 * A2
++ -0.0255265355873852 * B2
++ 1.81575029550189 * C2
++ -0.673412679937358 * D2
++ 0.268748269937507 * E2
++ -11.8464171653886 * F2
++ -3.66092324531263 * G2</f>
+        <v>131.36894356480889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <f>911.633352942589 + (0.162276508437098 * B2) + (1.71349764423141 * C2) + (-0.725510685576831 * D2) + (0.419860804777813 * E2) + (-11.1358767324259 * F2) + (1.91794999297728 * G2)</f>
+        <v>145.71924268009718</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17">
@@ -1605,22 +1743,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C2">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="F2">
-        <v>97.1</v>
+        <v>97.8</v>
       </c>
       <c r="G2">
         <v>97</v>
@@ -1628,8 +1766,15 @@
     </row>
     <row r="6" spans="1:7" ht="18">
       <c r="A6" s="5">
-        <f xml:space="preserve"> -5554.84 - 0.018 * A2 + 0.001 * B2 - 0.019 * C2 + 0.023 * D2 + 0.005 * E2 - 0.005 * F2 + 0.004 * G2 - 2.207 * (A2^2) + 1.421 * (A2 * B2) + 2.339 * (A2 * C2) - 0.248 * (A2 * D2) + 2.392 * (A2 * E2) - 2.291 * (A2 * F2) - 3.174 * (A2 * G2) - 0.821 * (B2^2) + 1.861 * (B2 * C2) - 0.725 * (B2 * D2) + 0.089 * (B2 * E2) + 0.491 * (B2 * F2) + 0.678 * (B2 * G2) - 1.101 * (C2^2) + 0.488 * (C2 * D2) - 0.638 * (C2 * E2) - 0.072 * (C2 * F2) - 0.535 * (C2 * G2) + 0.269 * (D2^2) - 0.009 * (D2 * E2) + 0.449 * (D2 * F2) - 0.374 * (D2 * G2) + 0.224 * (E2^2) + 2.705 * (E2 * F2) - 2.83 * (E2 * G2) - 1.416 * (F2^2) - 0.044 * (F2 * G2) + 1.68 * (G2^2)</f>
-        <v>71.201340000003256</v>
+        <f>128.086956521739
++ -18.0664256259675 * A2
++ -6.96205827173737 * B2
++ 17.170929096242 * C2
++ -6.48649677699531 * D2
++ 6.73551076512409 * E2
++ -2.17473309571641 * F2
++ -7.52368362776247 * G2</f>
+        <v>14.656451101457264</v>
       </c>
     </row>
   </sheetData>
@@ -1684,22 +1829,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C2">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="F2">
-        <v>97.1</v>
+        <v>97.8</v>
       </c>
       <c r="G2">
         <v>97</v>
@@ -1707,43 +1852,43 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <f xml:space="preserve"> -5854.11
-+ 0.065 * A2
-- 0.051 * B2
-- 0.062 * C2
-+ 0.023 * D2
-- 0.006 * E2
-+ 0.003 * F2
-+ 0.014 * G2
-- 2.263 * (A2^2)
-+ 1.18 * (A2 * B2)
-+ 2.649 * (A2 * C2)
-- 0.207 * (A2 * D2)
-+ 2.631 * (A2 * E2)
-- 2.429 * (A2 * F2)
-- 3.242 * (A2 * G2)
-- 0.835 * (B2^2)
-+ 1.885 * (B2 * C2)
-- 0.752 * (B2 * D2)
-+ 0.06 * (B2 * E2)
-+ 0.831 * (B2 * F2)
-+ 0.413 * (B2 * G2)
-- 1.133 * (C2^2)
-+ 0.486 * (C2 * D2)
-- 0.564 * (C2 * E2)
-- 0.246 * (C2 * F2)
-- 0.418 * (C2 * G2)
-+ 0.288 * (D2^2)
-- 0.008 * (D2 * E2)
-+ 0.704 * (D2 * F2)
-- 0.631 * (D2 * G2)
-+ 0.234 * (E2^2)
-+ 2.344 * (E2 * F2)
-- 2.516 * (E2 * G2)
-- 1.032 * (F2^2)
-- 0.971 * (F2 * G2)
-+ 2.256 * (G2^2)</f>
-        <v>94.329380000002857</v>
+        <f xml:space="preserve"> -2777.3777
+  - 0.0306966442 * A2
+  - 0.0237295037 * B2
+  - 0.00178381215 * C2
+  - 0.0794238741 * D2
+  + 0.0150597324 * E2
+  + 0.0147388974 * F2
+  - 0.0101332392 * G2
+  + 0.000642863956 * A2^2
+  - 2.6891593 * A2 * B2
+  + 2.90175099 * A2 * C2
+  + 2.37868647 * A2 * D2
+  - 1.86281402 * A2 * E2
+  + 2.27426967 * A2 * F2
+  - 2.20122626 * A2 * G2
+  - 3.44927305 * B2^2
+  - 0.541873009 * B2 * C2
+  + 1.83379605 * B2 * D2
+  - 0.491737199 * B2 * E2
+  - 0.183986057 * B2 * F2
+  - 0.208367328 * B2 * G2
+  + 0.681532017 * C2^2
+  - 0.976057331 * C2 * D2
+  + 0.00433569224 * C2 * E2
+  - 0.136086616 * C2 * F2
+  - 0.782376835 * C2 * G2
+  + 0.0388787305 * D2^2
+  + 0.25668131 * D2 * E2
+  - 0.170971246 * D2 * F2
+  + 0.583132701 * D2 * G2
+  - 0.213401406 * E2^2
+  + 0.236075106 * E2 * F2
+  + 2.65127719 * E2 * G2
+  - 2.69030224 * F2^2
+  - 0.425246771 * F2 * G2
+  - 1.03202106 * G2^2</f>
+        <v>-68478.672636694799</v>
       </c>
     </row>
   </sheetData>
@@ -1789,22 +1934,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C2">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="F2">
-        <v>97.1</v>
+        <v>97.8</v>
       </c>
       <c r="G2">
         <v>97</v>
@@ -1812,8 +1957,15 @@
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="A5" s="5">
-        <f xml:space="preserve"> 339.52 + 64.935 * A2 - 2.635 * B2 - 9.645 * C2 + 8.444 * D2 + 6.872 * E2 + 0 * F2 - 0 * G2 - 4.46 * (A2^2) - 0.148 * (A2 * B2) + 4.609 * (A2 * C2) - 0.978 * (A2 * D2) + 1.65 * (A2 * E2) - 1.74 * (A2 * F2) - 2.801 * (A2 * G2) - 0.038 * (B2^2) + 0.182 * (B2 * C2) - 0.328 * (B2 * D2) - 0.002 * (B2 * E2) + 0.182 * (B2 * F2) + 0.098 * (B2 * G2) + 0.221 * (C2^2) + 0.036 * (C2 * D2) - 0.057 * (C2 * E2) - 0.442 * (C2 * F2) - 0.157 * (C2 * G2) + 0.102 * (D2^2) - 0.158 * (D2 * E2) + 0.438 * (D2 * F2) - 0.141 * (D2 * G2) + 0.097 * (E2^2) + 0.043 * (E2 * F2) - 0.165 * (E2 * G2) + 0.561 * (F2^2) - 1.332 * (F2 * G2) + 0.779 * (G2^2)</f>
-        <v>284.82950999999957</v>
+        <f xml:space="preserve"> 123.36363636
+  - 30.2320481 * A2
+  + 0.46546612 * B2
+  - 3.86624655 * C2
+  + 3.89942115 * D2
+  - 2.48243808 * E2
+  - 4.92368231 * F2
+  - 14.16379955 * G2</f>
+        <v>-2125.9804746680002</v>
       </c>
     </row>
   </sheetData>
@@ -1859,22 +2011,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C2">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="F2">
-        <v>97.1</v>
+        <v>97.8</v>
       </c>
       <c r="G2">
         <v>97</v>
@@ -1882,43 +2034,15 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <f xml:space="preserve"> 56.98
-+ 0.811 * A2
-- 1.779 * B2
-- 2.451 * C2
-+ 2.687 * D2
-+ 3.386 * E2
-+ 0 * F2
-- 0 * G2
-- 3.497 * (A2^2)
-- 0.061 * (A2 * B2)
-+ 4.897 * (A2 * C2)
-- 0.739 * (A2 * D2)
-+ 1.431 * (A2 * E2)
-- 1.358 * (A2 * F2)
-- 2.935 * (A2 * G2)
-- 0.035 * (B2^2)
-+ 0.188 * (B2 * C2)
-- 0.352 * (B2 * D2)
-+ 0.02 * (B2 * E2)
-+ 0.143 * (B2 * F2)
-+ 0.116 * (B2 * G2)
-+ 0.196 * (C2^2)
-+ 0.04 * (C2 * D2)
-- 0.039 * (C2 * E2)
-- 0.488 * (C2 * F2)
-- 0.18 * (C2 * G2)
-+ 0.104 * (D2^2)
-- 0.111 * (D2 * E2)
-+ 0.489 * (D2 * F2)
-- 0.159 * (D2 * G2)
-+ 0.081 * (E2^2)
-+ 0.034 * (E2 * F2)
-- 0.168 * (E2 * G2)
-+ 0.565 * (F2^2)
-- 1.266 * (F2 * G2)
-+ 0.782 * (G2^2)</f>
-        <v>268.17274999999972</v>
+        <f xml:space="preserve"> 123.36363636
+  - 26.97617192 * A2
+  + 0.442144 * B2
+  - 3.08809396 * C2
+  + 3.14702357 * D2
+  - 1.45707668 * E2
+  - 4.45697169 * F2
+  - 11.57947801 * G2</f>
+        <v>-1697.617837152</v>
       </c>
     </row>
   </sheetData>
@@ -1942,7 +2066,7 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <f>AVERAGE('Multi Linear Regression'!A4,'ridge regression'!A6,'polynomial regression'!A5,'lasso regression'!A5,'elastic net regression'!A5)</f>
-        <v>165.11999600000104</v>
+        <v>-14431.249110769708</v>
       </c>
     </row>
   </sheetData>

--- a/Moni.xlsx
+++ b/Moni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuabrooks/Desktop/Cherry/Moni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66089F98-8964-A84B-9655-2DA5F00A2CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7536166-4FBD-3741-93DA-F1260BEA03FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20520" activeTab="1" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="38">
   <si>
     <t>Patient</t>
   </si>
@@ -139,6 +139,27 @@
   </si>
   <si>
     <t>For complex, high-dimensional data, neural networks can capture intricate patterns and relationships. However, they require more data and computational power.</t>
+  </si>
+  <si>
+    <t>prediction</t>
+  </si>
+  <si>
+    <t>prediction - acetone</t>
+  </si>
+  <si>
+    <t>prediction - acetone, blood pressure, and pulse</t>
+  </si>
+  <si>
+    <t>adj r sq</t>
+  </si>
+  <si>
+    <t>prediction - acetone, blood pressure, pulse, and temp</t>
+  </si>
+  <si>
+    <t>r sq</t>
+  </si>
+  <si>
+    <t>Acetone only</t>
   </si>
 </sst>
 </file>
@@ -199,13 +220,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,11 +566,11 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1592,6 +1615,703 @@
         <v>246</v>
       </c>
     </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C26">
+        <v>1720</v>
+      </c>
+      <c r="D26">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>113</v>
+      </c>
+      <c r="H26">
+        <v>68</v>
+      </c>
+      <c r="I26">
+        <v>81</v>
+      </c>
+      <c r="J26">
+        <v>89</v>
+      </c>
+      <c r="K26">
+        <v>98.7</v>
+      </c>
+      <c r="L26">
+        <v>98</v>
+      </c>
+      <c r="M26">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C27">
+        <v>1830</v>
+      </c>
+      <c r="D27">
+        <v>33</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>126</v>
+      </c>
+      <c r="H27">
+        <v>81</v>
+      </c>
+      <c r="I27">
+        <v>86</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>97.2</v>
+      </c>
+      <c r="L27">
+        <v>98</v>
+      </c>
+      <c r="M27">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C28">
+        <v>1850</v>
+      </c>
+      <c r="D28">
+        <v>33</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>136</v>
+      </c>
+      <c r="H28">
+        <v>89</v>
+      </c>
+      <c r="I28">
+        <v>99</v>
+      </c>
+      <c r="J28">
+        <v>101</v>
+      </c>
+      <c r="K28">
+        <v>98.3</v>
+      </c>
+      <c r="L28">
+        <v>99</v>
+      </c>
+      <c r="M28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C29">
+        <v>2050</v>
+      </c>
+      <c r="D29">
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>129</v>
+      </c>
+      <c r="H29">
+        <v>86</v>
+      </c>
+      <c r="I29">
+        <v>100</v>
+      </c>
+      <c r="J29">
+        <v>83</v>
+      </c>
+      <c r="K29">
+        <v>98.6</v>
+      </c>
+      <c r="L29">
+        <v>99</v>
+      </c>
+      <c r="M29">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C30">
+        <v>2225</v>
+      </c>
+      <c r="D30">
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>124</v>
+      </c>
+      <c r="H30">
+        <v>76</v>
+      </c>
+      <c r="I30">
+        <v>107</v>
+      </c>
+      <c r="J30">
+        <v>108</v>
+      </c>
+      <c r="K30">
+        <v>98.2</v>
+      </c>
+      <c r="L30">
+        <v>95</v>
+      </c>
+      <c r="M30">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45513</v>
+      </c>
+      <c r="C31">
+        <v>1516</v>
+      </c>
+      <c r="D31">
+        <v>33</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>110</v>
+      </c>
+      <c r="H31">
+        <v>69</v>
+      </c>
+      <c r="I31">
+        <v>94</v>
+      </c>
+      <c r="J31">
+        <v>102</v>
+      </c>
+      <c r="K31">
+        <v>98.3</v>
+      </c>
+      <c r="L31">
+        <v>96</v>
+      </c>
+      <c r="M31">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45513</v>
+      </c>
+      <c r="C32">
+        <v>1525</v>
+      </c>
+      <c r="D32">
+        <v>33</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>123</v>
+      </c>
+      <c r="H32">
+        <v>70</v>
+      </c>
+      <c r="I32">
+        <v>98</v>
+      </c>
+      <c r="J32">
+        <v>103</v>
+      </c>
+      <c r="K32">
+        <v>99.3</v>
+      </c>
+      <c r="L32">
+        <v>97</v>
+      </c>
+      <c r="M32">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45513</v>
+      </c>
+      <c r="C33">
+        <v>1537</v>
+      </c>
+      <c r="D33">
+        <v>33</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>118</v>
+      </c>
+      <c r="H33">
+        <v>70</v>
+      </c>
+      <c r="I33">
+        <v>89</v>
+      </c>
+      <c r="J33">
+        <v>99</v>
+      </c>
+      <c r="K33">
+        <v>98.2</v>
+      </c>
+      <c r="L33">
+        <v>97</v>
+      </c>
+      <c r="M33">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45513</v>
+      </c>
+      <c r="C34">
+        <v>1607</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <v>114</v>
+      </c>
+      <c r="H34">
+        <v>66</v>
+      </c>
+      <c r="I34">
+        <v>85</v>
+      </c>
+      <c r="J34">
+        <v>81</v>
+      </c>
+      <c r="K34">
+        <v>97.2</v>
+      </c>
+      <c r="L34">
+        <v>97</v>
+      </c>
+      <c r="M34">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45514</v>
+      </c>
+      <c r="C35">
+        <v>1900</v>
+      </c>
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>133</v>
+      </c>
+      <c r="H35">
+        <v>82</v>
+      </c>
+      <c r="I35">
+        <v>97</v>
+      </c>
+      <c r="J35">
+        <v>83</v>
+      </c>
+      <c r="K35">
+        <v>98.2</v>
+      </c>
+      <c r="L35">
+        <v>98</v>
+      </c>
+      <c r="M35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45515</v>
+      </c>
+      <c r="C36">
+        <v>1700</v>
+      </c>
+      <c r="D36">
+        <v>33</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>116</v>
+      </c>
+      <c r="H36">
+        <v>75</v>
+      </c>
+      <c r="I36">
+        <v>75</v>
+      </c>
+      <c r="J36">
+        <v>86</v>
+      </c>
+      <c r="K36">
+        <v>98.1</v>
+      </c>
+      <c r="L36">
+        <v>96</v>
+      </c>
+      <c r="M36">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45515</v>
+      </c>
+      <c r="C37">
+        <v>1709</v>
+      </c>
+      <c r="D37">
+        <v>33</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>130</v>
+      </c>
+      <c r="H37">
+        <v>102</v>
+      </c>
+      <c r="I37">
+        <v>74</v>
+      </c>
+      <c r="J37">
+        <v>75</v>
+      </c>
+      <c r="K37">
+        <v>98</v>
+      </c>
+      <c r="L37">
+        <v>97</v>
+      </c>
+      <c r="M37">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45515</v>
+      </c>
+      <c r="C38">
+        <v>1840</v>
+      </c>
+      <c r="D38">
+        <v>33</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>108</v>
+      </c>
+      <c r="H38">
+        <v>71</v>
+      </c>
+      <c r="I38">
+        <v>84</v>
+      </c>
+      <c r="J38">
+        <v>87</v>
+      </c>
+      <c r="K38">
+        <v>98.1</v>
+      </c>
+      <c r="L38">
+        <v>98</v>
+      </c>
+      <c r="M38">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C39">
+        <v>830</v>
+      </c>
+      <c r="D39">
+        <v>33</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>129</v>
+      </c>
+      <c r="H39">
+        <v>78</v>
+      </c>
+      <c r="I39">
+        <v>69</v>
+      </c>
+      <c r="J39">
+        <v>80</v>
+      </c>
+      <c r="K39">
+        <v>97.8</v>
+      </c>
+      <c r="L39">
+        <v>98</v>
+      </c>
+      <c r="M39">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C40">
+        <v>838</v>
+      </c>
+      <c r="D40">
+        <v>33</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>119</v>
+      </c>
+      <c r="H40">
+        <v>68</v>
+      </c>
+      <c r="I40">
+        <v>65</v>
+      </c>
+      <c r="J40">
+        <v>75</v>
+      </c>
+      <c r="K40">
+        <v>97.8</v>
+      </c>
+      <c r="L40">
+        <v>98</v>
+      </c>
+      <c r="M40">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C41">
+        <v>1231</v>
+      </c>
+      <c r="D41">
+        <v>33</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>106</v>
+      </c>
+      <c r="H41">
+        <v>69</v>
+      </c>
+      <c r="I41">
+        <v>75</v>
+      </c>
+      <c r="J41">
+        <v>83</v>
+      </c>
+      <c r="K41">
+        <v>97.6</v>
+      </c>
+      <c r="L41">
+        <v>98</v>
+      </c>
+      <c r="M41">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C42">
+        <v>1238</v>
+      </c>
+      <c r="D42">
+        <v>33</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>120</v>
+      </c>
+      <c r="H42">
+        <v>66</v>
+      </c>
+      <c r="I42">
+        <v>83</v>
+      </c>
+      <c r="J42">
+        <v>76</v>
+      </c>
+      <c r="K42">
+        <v>98.5</v>
+      </c>
+      <c r="L42">
+        <v>98</v>
+      </c>
+      <c r="M42">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M8" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1606,13 +2326,15 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -1644,22 +2366,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F2">
-        <v>95.7</v>
+        <v>98</v>
       </c>
       <c r="G2">
         <v>98</v>
@@ -1668,21 +2390,107 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <f>1563.69547034152
-+ -5.65022334933917 * A2
-+ -0.0255265355873852 * B2
-+ 1.81575029550189 * C2
-+ -0.673412679937358 * D2
-+ 0.268748269937507 * E2
-+ -11.8464171653886 * F2
-+ -3.66092324531263 * G2</f>
-        <v>131.36894356480889</v>
-      </c>
+        <f>-970.953114493566 + (8.26749097059701 * A2) + (-1.19239179639682 * B2) + (0.0494239187256358 * C2) + (0.405583610302075 * D2) + (0.595517271650786 * E2) + (-1.87077135025947 * F2) + (13.5616690853591 * G2)</f>
+        <v>114.90980799001841</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6">
+        <v>-0.214</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="6">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <f>911.633352942589 + (0.162276508437098 * B2) + (1.71349764423141 * C2) + (-0.725510685576831 * D2) + (0.419860804777813 * E2) + (-11.1358767324259 * F2) + (1.91794999297728 * G2)</f>
-        <v>145.71924268009718</v>
+        <f>182.035975740606 + (-1.33959284114569 * B2) + (1.23362432658027 * C2) + (0.497141246478476 * D2) + (0.251212122695351 * E2) + (-2.00127014384241 * F2) + (1.58276298337347 * G2)</f>
+        <v>121.19451223369035</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-0.217</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <f>160.471049409302 + (0.415242007572252 * E2) + (-1.29953304371339 * F2) + (0.704982888995284 * G2)</f>
+        <v>133.34828481484652</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="17">
+      <c r="A10">
+        <f>13.0053925044525 + (0.421023503571367 * E2) + (0.911398972691588 * G2)</f>
+        <v>133.89925459608065</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <f>121.74094222609 + (6.47709716026548 * A2)</f>
+        <v>134.69513654662097</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17">
@@ -2066,7 +2874,7 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <f>AVERAGE('Multi Linear Regression'!A4,'ridge regression'!A6,'polynomial regression'!A5,'lasso regression'!A5,'elastic net regression'!A5)</f>
-        <v>-14431.249110769708</v>
+        <v>-14434.540937884663</v>
       </c>
     </row>
   </sheetData>

--- a/Moni.xlsx
+++ b/Moni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuabrooks/Desktop/Cherry/Moni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7536166-4FBD-3741-93DA-F1260BEA03FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD24425F-45CF-EC46-AAF3-091928769D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,12 @@
     <sheet name="elastic net regression" sheetId="8" r:id="rId6"/>
     <sheet name="Avg" sheetId="6" r:id="rId7"/>
     <sheet name="Models" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'raw data'!$A$1:$M$8</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="40">
   <si>
     <t>Patient</t>
   </si>
@@ -161,12 +162,18 @@
   <si>
     <t>Acetone only</t>
   </si>
+  <si>
+    <t>QBR</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,6 +206,19 @@
       <color rgb="FF000000"/>
       <name val="-webkit-standard"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF48494A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6C6D6F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -220,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -229,6 +249,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,6 +266,1010 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QBR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C667-094C-AAA7-E166E978B030}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>62.641666666666673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.641666666666673</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.641666666666673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.641666666666673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.641666666666673</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.641666666666673</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.641666666666673</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.641666666666673</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.641666666666673</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.641666666666673</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.641666666666673</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.641666666666673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C667-094C-AAA7-E166E978B030}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="972347104"/>
+        <c:axId val="972249776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="972347104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="972249776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="972249776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="972347104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB2270C6-12A9-A8EA-B4A5-62795454F5E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -566,11 +1592,11 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2312,6 +3338,498 @@
         <v>221</v>
       </c>
     </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C43">
+        <v>1613</v>
+      </c>
+      <c r="D43">
+        <v>33</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>127</v>
+      </c>
+      <c r="H43">
+        <v>71</v>
+      </c>
+      <c r="I43">
+        <v>93</v>
+      </c>
+      <c r="J43">
+        <v>82</v>
+      </c>
+      <c r="K43">
+        <v>97.4</v>
+      </c>
+      <c r="L43">
+        <v>97</v>
+      </c>
+      <c r="M43">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C44">
+        <v>1700</v>
+      </c>
+      <c r="D44">
+        <v>33</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>113</v>
+      </c>
+      <c r="H44">
+        <v>69</v>
+      </c>
+      <c r="I44">
+        <v>78</v>
+      </c>
+      <c r="J44">
+        <v>78</v>
+      </c>
+      <c r="K44">
+        <v>98.3</v>
+      </c>
+      <c r="L44">
+        <v>98</v>
+      </c>
+      <c r="M44">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C45">
+        <v>1715</v>
+      </c>
+      <c r="D45">
+        <v>33</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>109</v>
+      </c>
+      <c r="H45">
+        <v>73</v>
+      </c>
+      <c r="I45">
+        <v>83</v>
+      </c>
+      <c r="J45">
+        <v>78</v>
+      </c>
+      <c r="K45">
+        <v>98.2</v>
+      </c>
+      <c r="L45">
+        <v>98</v>
+      </c>
+      <c r="M45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C46">
+        <v>1730</v>
+      </c>
+      <c r="D46">
+        <v>33</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>117</v>
+      </c>
+      <c r="H46">
+        <v>76</v>
+      </c>
+      <c r="I46">
+        <v>79</v>
+      </c>
+      <c r="J46">
+        <v>78</v>
+      </c>
+      <c r="K46">
+        <v>98.2</v>
+      </c>
+      <c r="L46">
+        <v>97</v>
+      </c>
+      <c r="M46">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C47">
+        <v>1750</v>
+      </c>
+      <c r="D47">
+        <v>33</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47">
+        <v>110</v>
+      </c>
+      <c r="H47">
+        <v>74</v>
+      </c>
+      <c r="I47">
+        <v>72</v>
+      </c>
+      <c r="J47">
+        <v>83</v>
+      </c>
+      <c r="K47">
+        <v>98.2</v>
+      </c>
+      <c r="L47">
+        <v>96</v>
+      </c>
+      <c r="M47">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C48">
+        <v>1754</v>
+      </c>
+      <c r="D48">
+        <v>33</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>110</v>
+      </c>
+      <c r="H48">
+        <v>73</v>
+      </c>
+      <c r="I48">
+        <v>78</v>
+      </c>
+      <c r="J48">
+        <v>82</v>
+      </c>
+      <c r="K48">
+        <v>98.4</v>
+      </c>
+      <c r="L48">
+        <v>98</v>
+      </c>
+      <c r="M48">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45518</v>
+      </c>
+      <c r="C49">
+        <v>1041</v>
+      </c>
+      <c r="D49">
+        <v>33</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>109</v>
+      </c>
+      <c r="H49">
+        <v>75</v>
+      </c>
+      <c r="I49">
+        <v>79</v>
+      </c>
+      <c r="J49">
+        <v>81</v>
+      </c>
+      <c r="K49">
+        <v>97.6</v>
+      </c>
+      <c r="L49">
+        <v>98</v>
+      </c>
+      <c r="M49">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45518</v>
+      </c>
+      <c r="C50">
+        <v>328</v>
+      </c>
+      <c r="D50">
+        <v>33</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>107</v>
+      </c>
+      <c r="H50">
+        <v>65</v>
+      </c>
+      <c r="I50">
+        <v>102</v>
+      </c>
+      <c r="J50">
+        <v>85</v>
+      </c>
+      <c r="K50">
+        <v>98.1</v>
+      </c>
+      <c r="L50">
+        <v>100</v>
+      </c>
+      <c r="M50">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45518</v>
+      </c>
+      <c r="C51">
+        <v>1833</v>
+      </c>
+      <c r="D51">
+        <v>33</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>121</v>
+      </c>
+      <c r="H51">
+        <v>76</v>
+      </c>
+      <c r="I51">
+        <v>71</v>
+      </c>
+      <c r="J51">
+        <v>87</v>
+      </c>
+      <c r="K51">
+        <v>97.4</v>
+      </c>
+      <c r="L51">
+        <v>97</v>
+      </c>
+      <c r="M51">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45518</v>
+      </c>
+      <c r="C52">
+        <v>1900</v>
+      </c>
+      <c r="D52">
+        <v>33</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>113</v>
+      </c>
+      <c r="H52">
+        <v>66</v>
+      </c>
+      <c r="I52">
+        <v>77</v>
+      </c>
+      <c r="J52">
+        <v>85</v>
+      </c>
+      <c r="K52">
+        <v>98.2</v>
+      </c>
+      <c r="L52">
+        <v>98</v>
+      </c>
+      <c r="M52">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45519</v>
+      </c>
+      <c r="C53">
+        <v>720</v>
+      </c>
+      <c r="D53">
+        <v>33</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>113</v>
+      </c>
+      <c r="H53">
+        <v>69</v>
+      </c>
+      <c r="I53">
+        <v>74</v>
+      </c>
+      <c r="J53">
+        <v>66</v>
+      </c>
+      <c r="K53">
+        <v>97.8</v>
+      </c>
+      <c r="L53">
+        <v>96</v>
+      </c>
+      <c r="M53">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45520</v>
+      </c>
+      <c r="C54">
+        <v>1000</v>
+      </c>
+      <c r="D54">
+        <v>33</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>120</v>
+      </c>
+      <c r="H54">
+        <v>85</v>
+      </c>
+      <c r="I54">
+        <v>98</v>
+      </c>
+      <c r="J54">
+        <v>103</v>
+      </c>
+      <c r="K54">
+        <v>98.1</v>
+      </c>
+      <c r="L54">
+        <v>95</v>
+      </c>
+      <c r="M54">
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M8" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2327,7 +3845,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2390,8 +3908,8 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <f>-970.953114493566 + (8.26749097059701 * A2) + (-1.19239179639682 * B2) + (0.0494239187256358 * C2) + (0.405583610302075 * D2) + (0.595517271650786 * E2) + (-1.87077135025947 * F2) + (13.5616690853591 * G2)</f>
-        <v>114.90980799001841</v>
+        <f>-1161.09317097566 + (6.21616251484059 * A2) + (-0.684470938464074 * B2) + (-0.875249404343267 * C2) + (0.0374562323582727 * D2) + (0.722001329276396 * E2) + (1.29560585057413 * F2) + (12.7428871318836 * G2)</f>
+        <v>125.03215287732951</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -2874,7 +4392,7 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <f>AVERAGE('Multi Linear Regression'!A4,'ridge regression'!A6,'polynomial regression'!A5,'lasso regression'!A5,'elastic net regression'!A5)</f>
-        <v>-14434.540937884663</v>
+        <v>-14432.516468907201</v>
       </c>
     </row>
   </sheetData>
@@ -2983,4 +4501,142 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A81BC75-8DDF-4D44-B6C9-EF8D213474D2}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9">
+        <v>74.8</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE($A$2:$A$13)</f>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9">
+        <v>67.2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B13" si="0">AVERAGE($A$2:$A$13)</f>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="9">
+        <v>69.7</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9">
+        <v>57.1</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9">
+        <v>62.4</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9">
+        <v>63.3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="9">
+        <v>71.5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="9">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9">
+        <v>60.6</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9">
+        <v>50.7</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18">
+        <f xml:space="preserve"> 0.3522 + 0.1533 * A11</f>
+        <v>9.6421799999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Moni.xlsx
+++ b/Moni.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuabrooks/Desktop/Cherry/Moni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD24425F-45CF-EC46-AAF3-091928769D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D9136C-7265-2245-A1EF-D87BC17B3F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20520" xr2:uid="{49363713-2490-F447-8EB3-65EFE1B54A37}"/>
   </bookViews>
   <sheets>
-    <sheet name="raw data" sheetId="1" r:id="rId1"/>
-    <sheet name="Multi Linear Regression" sheetId="2" r:id="rId2"/>
-    <sheet name="ridge regression" sheetId="4" r:id="rId3"/>
-    <sheet name="polynomial regression" sheetId="3" r:id="rId4"/>
-    <sheet name="lasso regression" sheetId="7" r:id="rId5"/>
-    <sheet name="elastic net regression" sheetId="8" r:id="rId6"/>
-    <sheet name="Avg" sheetId="6" r:id="rId7"/>
-    <sheet name="Models" sheetId="5" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
+    <sheet name="Infrared" sheetId="10" r:id="rId1"/>
+    <sheet name="raw data" sheetId="1" r:id="rId2"/>
+    <sheet name="Multi Linear Regression" sheetId="2" r:id="rId3"/>
+    <sheet name="ridge regression" sheetId="4" r:id="rId4"/>
+    <sheet name="polynomial regression" sheetId="3" r:id="rId5"/>
+    <sheet name="lasso regression" sheetId="7" r:id="rId6"/>
+    <sheet name="elastic net regression" sheetId="8" r:id="rId7"/>
+    <sheet name="Avg" sheetId="6" r:id="rId8"/>
+    <sheet name="Models" sheetId="5" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'raw data'!$A$1:$M$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Infrared!$F$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'raw data'!$A$1:$M$8</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="42">
   <si>
     <t>Patient</t>
   </si>
@@ -168,12 +170,21 @@
   <si>
     <t>avg</t>
   </si>
+  <si>
+    <t>IR data</t>
+  </si>
+  <si>
+    <t>Blood glucose</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,6 +230,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4E5B61"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -240,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -251,6 +268,9 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="47" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1588,15 +1608,1027 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDB5FBC-3463-A542-B2F3-0C8236A4747E}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:G95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I94" sqref="I94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="12"/>
+    <col min="7" max="7" width="14.83203125" style="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="F1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="12">
+        <v>3</v>
+      </c>
+      <c r="G2" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="F3" s="12">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="F4" s="12">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="F5" s="12">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="F6" s="12">
+        <v>16</v>
+      </c>
+      <c r="G6" s="12">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="F7" s="12">
+        <v>31</v>
+      </c>
+      <c r="G7" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="F8" s="12">
+        <v>96</v>
+      </c>
+      <c r="G8" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17">
+      <c r="A9" s="11"/>
+      <c r="F9" s="12">
+        <v>255</v>
+      </c>
+      <c r="G9" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17">
+      <c r="A10" s="11"/>
+      <c r="F10" s="12">
+        <v>516</v>
+      </c>
+      <c r="G10" s="12">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17">
+      <c r="A11" s="11"/>
+      <c r="F11" s="12">
+        <v>767</v>
+      </c>
+      <c r="G11" s="12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17">
+      <c r="A12" s="11"/>
+      <c r="F12" s="12">
+        <v>1032</v>
+      </c>
+      <c r="G12" s="12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17">
+      <c r="A13" s="11"/>
+      <c r="F13" s="12">
+        <v>2305</v>
+      </c>
+      <c r="G13" s="12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17">
+      <c r="A14" s="11"/>
+      <c r="F14" s="12">
+        <v>4100</v>
+      </c>
+      <c r="G14" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17">
+      <c r="A15" s="11"/>
+      <c r="F15" s="12">
+        <v>4369</v>
+      </c>
+      <c r="G15" s="12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17">
+      <c r="A16" s="11"/>
+      <c r="F16" s="12">
+        <v>4369</v>
+      </c>
+      <c r="G16" s="12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17">
+      <c r="A17" s="11"/>
+      <c r="F17" s="12">
+        <v>4369</v>
+      </c>
+      <c r="G17" s="12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17">
+      <c r="A18" s="11"/>
+      <c r="F18" s="12">
+        <v>4369</v>
+      </c>
+      <c r="G18" s="12">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17">
+      <c r="A19" s="11"/>
+      <c r="F19" s="12">
+        <v>4369</v>
+      </c>
+      <c r="G19" s="12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17">
+      <c r="A20" s="11"/>
+      <c r="F20" s="12">
+        <v>4369</v>
+      </c>
+      <c r="G20" s="12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17">
+      <c r="A21" s="11"/>
+      <c r="F21" s="12">
+        <v>4369</v>
+      </c>
+      <c r="G21" s="12">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17">
+      <c r="A22" s="10"/>
+      <c r="F22" s="12">
+        <v>4369</v>
+      </c>
+      <c r="G22" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17">
+      <c r="A23" s="10"/>
+      <c r="F23" s="12">
+        <v>4369</v>
+      </c>
+      <c r="G23" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17">
+      <c r="A24" s="11"/>
+      <c r="F24" s="12">
+        <v>4369</v>
+      </c>
+      <c r="G24" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17">
+      <c r="A25" s="11"/>
+      <c r="F25" s="12">
+        <v>4369</v>
+      </c>
+      <c r="G25" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17">
+      <c r="A26" s="11"/>
+      <c r="F26" s="12">
+        <v>4369</v>
+      </c>
+      <c r="G26" s="12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17">
+      <c r="A27" s="11"/>
+      <c r="F27" s="12">
+        <v>4369</v>
+      </c>
+      <c r="G27" s="12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17">
+      <c r="A28" s="10"/>
+      <c r="F28" s="12">
+        <v>4369</v>
+      </c>
+      <c r="G28" s="12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17">
+      <c r="A29" s="10"/>
+      <c r="F29" s="12">
+        <v>4369</v>
+      </c>
+      <c r="G29" s="12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17">
+      <c r="A30" s="11"/>
+      <c r="F30" s="12">
+        <v>5662</v>
+      </c>
+      <c r="G30" s="12">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17">
+      <c r="A31" s="11"/>
+      <c r="F31" s="12">
+        <v>5993</v>
+      </c>
+      <c r="G31" s="12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17">
+      <c r="A32" s="11"/>
+      <c r="F32" s="12">
+        <v>8192</v>
+      </c>
+      <c r="G32" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17">
+      <c r="A33" s="11"/>
+      <c r="F33" s="12">
+        <v>8228</v>
+      </c>
+      <c r="G33" s="12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17">
+      <c r="A34" s="11"/>
+      <c r="F34" s="12">
+        <v>8324</v>
+      </c>
+      <c r="G34" s="12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17">
+      <c r="A35" s="11"/>
+      <c r="F35" s="12">
+        <v>11874</v>
+      </c>
+      <c r="G35" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17">
+      <c r="A36" s="11"/>
+      <c r="F36" s="12">
+        <v>13178</v>
+      </c>
+      <c r="G36" s="12">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17">
+      <c r="A37" s="11"/>
+      <c r="F37" s="12">
+        <v>16383</v>
+      </c>
+      <c r="G37" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17">
+      <c r="A38" s="11"/>
+      <c r="F38" s="12">
+        <v>16652</v>
+      </c>
+      <c r="G38" s="12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17">
+      <c r="A39" s="11"/>
+      <c r="F39" s="12">
+        <v>18106</v>
+      </c>
+      <c r="G39" s="12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17">
+      <c r="A40" s="11"/>
+      <c r="F40" s="12">
+        <v>19571</v>
+      </c>
+      <c r="G40" s="12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17">
+      <c r="A41" s="11"/>
+      <c r="F41" s="12">
+        <v>20618</v>
+      </c>
+      <c r="G41" s="12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17">
+      <c r="A42" s="11"/>
+      <c r="F42" s="12">
+        <v>26298</v>
+      </c>
+      <c r="G42" s="12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17">
+      <c r="A43" s="11"/>
+      <c r="F43" s="12">
+        <v>27452</v>
+      </c>
+      <c r="G43" s="12">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17">
+      <c r="A44" s="11"/>
+      <c r="F44" s="12">
+        <v>32115</v>
+      </c>
+      <c r="G44" s="12">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="F45" s="12">
+        <v>32767</v>
+      </c>
+      <c r="G45" s="12">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="F46" s="12">
+        <v>33820</v>
+      </c>
+      <c r="G46" s="12">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17">
+      <c r="A47" s="10"/>
+      <c r="F47" s="12">
+        <v>41255</v>
+      </c>
+      <c r="G47" s="12">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17">
+      <c r="A48" s="10"/>
+      <c r="F48" s="12">
+        <v>47625</v>
+      </c>
+      <c r="G48" s="12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17">
+      <c r="A49" s="11"/>
+      <c r="F49" s="12">
+        <v>54713</v>
+      </c>
+      <c r="G49" s="12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17">
+      <c r="A50" s="11"/>
+      <c r="F50" s="12">
+        <v>57343</v>
+      </c>
+      <c r="G50" s="12">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17">
+      <c r="A51" s="11"/>
+      <c r="F51" s="12">
+        <v>61439</v>
+      </c>
+      <c r="G51" s="12">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17">
+      <c r="A52" s="11"/>
+      <c r="F52" s="12">
+        <v>63364</v>
+      </c>
+      <c r="G52" s="12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17">
+      <c r="A53" s="11"/>
+      <c r="F53" s="12">
+        <v>65295</v>
+      </c>
+      <c r="G53" s="12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17">
+      <c r="A54" s="11"/>
+      <c r="F54" s="12">
+        <v>65295</v>
+      </c>
+      <c r="G54" s="12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17">
+      <c r="A55" s="11"/>
+      <c r="F55" s="12">
+        <v>65295</v>
+      </c>
+      <c r="G55" s="12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17">
+      <c r="A56" s="11"/>
+      <c r="F56" s="12">
+        <v>65295</v>
+      </c>
+      <c r="G56" s="12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17">
+      <c r="A57" s="11"/>
+      <c r="F57" s="12">
+        <v>65295</v>
+      </c>
+      <c r="G57" s="12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17">
+      <c r="A58" s="11"/>
+      <c r="F58" s="12">
+        <v>65295</v>
+      </c>
+      <c r="G58" s="12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17">
+      <c r="A59" s="11"/>
+      <c r="F59" s="12">
+        <v>65295</v>
+      </c>
+      <c r="G59" s="12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17">
+      <c r="A60" s="11"/>
+      <c r="F60" s="12">
+        <v>65295</v>
+      </c>
+      <c r="G60" s="12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17">
+      <c r="A61" s="11"/>
+      <c r="F61" s="12">
+        <v>65295</v>
+      </c>
+      <c r="G61" s="12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17">
+      <c r="A62" s="11"/>
+      <c r="F62" s="12">
+        <v>65535</v>
+      </c>
+      <c r="G62" s="12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="17">
+      <c r="A63" s="11"/>
+      <c r="F63" s="12">
+        <v>65535</v>
+      </c>
+      <c r="G63" s="12">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17">
+      <c r="A64" s="11"/>
+      <c r="F64" s="12">
+        <v>65535</v>
+      </c>
+      <c r="G64" s="12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17">
+      <c r="A65" s="11"/>
+      <c r="F65" s="12">
+        <v>65535</v>
+      </c>
+      <c r="G65" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17">
+      <c r="A66" s="11"/>
+      <c r="F66" s="12">
+        <v>65535</v>
+      </c>
+      <c r="G66" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17">
+      <c r="A67" s="11"/>
+      <c r="F67">
+        <v>65535</v>
+      </c>
+      <c r="G67" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17">
+      <c r="A68" s="11"/>
+      <c r="F68">
+        <v>4369</v>
+      </c>
+      <c r="G68" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="17">
+      <c r="A69" s="11"/>
+      <c r="F69">
+        <v>4369</v>
+      </c>
+      <c r="G69" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17">
+      <c r="A70" s="11"/>
+      <c r="F70">
+        <v>13942</v>
+      </c>
+      <c r="G70" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17">
+      <c r="A71" s="11"/>
+      <c r="F71">
+        <v>65535</v>
+      </c>
+      <c r="G71" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17">
+      <c r="A72" s="11"/>
+      <c r="F72">
+        <v>37340</v>
+      </c>
+      <c r="G72" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17">
+      <c r="A73" s="11"/>
+      <c r="F73">
+        <v>4369</v>
+      </c>
+      <c r="G73" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17">
+      <c r="A74" s="11"/>
+      <c r="F74">
+        <v>4369</v>
+      </c>
+      <c r="G74" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17">
+      <c r="A75" s="11"/>
+      <c r="F75">
+        <v>4369</v>
+      </c>
+      <c r="G75" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17">
+      <c r="A76" s="11"/>
+      <c r="F76">
+        <v>4369</v>
+      </c>
+      <c r="G76" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17">
+      <c r="A77" s="11"/>
+      <c r="F77">
+        <v>4369</v>
+      </c>
+      <c r="G77" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="17">
+      <c r="A78" s="11"/>
+      <c r="F78">
+        <v>4369</v>
+      </c>
+      <c r="G78" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="17">
+      <c r="A79" s="11"/>
+      <c r="F79">
+        <v>31743</v>
+      </c>
+      <c r="G79" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="17">
+      <c r="A80" s="11"/>
+      <c r="F80">
+        <v>21909</v>
+      </c>
+      <c r="G80" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="17">
+      <c r="A81" s="11"/>
+      <c r="F81">
+        <v>4369</v>
+      </c>
+      <c r="G81" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="17">
+      <c r="A82" s="11"/>
+      <c r="F82">
+        <v>33066</v>
+      </c>
+      <c r="G82" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="17">
+      <c r="A83" s="11"/>
+      <c r="F83">
+        <v>4369</v>
+      </c>
+      <c r="G83" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="17">
+      <c r="A84" s="11"/>
+      <c r="F84">
+        <v>4369</v>
+      </c>
+      <c r="G84" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17">
+      <c r="A85" s="11"/>
+      <c r="F85">
+        <v>4369</v>
+      </c>
+      <c r="G85" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="17">
+      <c r="A86" s="11"/>
+      <c r="F86">
+        <v>4369</v>
+      </c>
+      <c r="G86" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="17">
+      <c r="A87" s="11"/>
+      <c r="F87">
+        <v>1064</v>
+      </c>
+      <c r="G87" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="17">
+      <c r="A88" s="11"/>
+      <c r="F88">
+        <v>384</v>
+      </c>
+      <c r="G88" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="17">
+      <c r="A89" s="11"/>
+      <c r="F89">
+        <v>4369</v>
+      </c>
+      <c r="G89" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="17">
+      <c r="A90" s="11"/>
+      <c r="F90">
+        <v>8321</v>
+      </c>
+      <c r="G90" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="17">
+      <c r="A91" s="11"/>
+      <c r="F91">
+        <v>16371</v>
+      </c>
+      <c r="G91" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="17">
+      <c r="A92" s="11"/>
+      <c r="F92">
+        <v>15906</v>
+      </c>
+      <c r="G92" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="17">
+      <c r="A93" s="11"/>
+      <c r="F93">
+        <v>2181</v>
+      </c>
+      <c r="G93" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="17">
+      <c r="A94" s="11"/>
+      <c r="F94">
+        <v>32</v>
+      </c>
+      <c r="G94" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="17">
+      <c r="A95" s="11"/>
+      <c r="F95">
+        <v>32800</v>
+      </c>
+      <c r="G95" s="12">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="F1:G1" xr:uid="{1BDB5FBC-3463-A542-B2F3-0C8236A4747E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G66">
+      <sortCondition ref="F1:F66"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A81BC75-8DDF-4D44-B6C9-EF8D213474D2}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9">
+        <v>74.8</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE($A$2:$A$13)</f>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9">
+        <v>67.2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B13" si="0">AVERAGE($A$2:$A$13)</f>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="9">
+        <v>69.7</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9">
+        <v>57.1</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9">
+        <v>62.4</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9">
+        <v>63.3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="9">
+        <v>71.5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="9">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9">
+        <v>60.6</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9">
+        <v>50.7</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>62.641666666666673</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18">
+        <f xml:space="preserve"> 0.3522 + 0.1533 * A11</f>
+        <v>9.6421799999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3830,6 +4862,211 @@
         <v>254</v>
       </c>
     </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45520</v>
+      </c>
+      <c r="C55">
+        <v>1130</v>
+      </c>
+      <c r="D55">
+        <v>33</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>109</v>
+      </c>
+      <c r="H55">
+        <v>71</v>
+      </c>
+      <c r="I55">
+        <v>84</v>
+      </c>
+      <c r="J55">
+        <v>78</v>
+      </c>
+      <c r="K55">
+        <v>97.8</v>
+      </c>
+      <c r="L55">
+        <v>98</v>
+      </c>
+      <c r="M55">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45520</v>
+      </c>
+      <c r="C56">
+        <v>1339</v>
+      </c>
+      <c r="D56">
+        <v>33</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>127</v>
+      </c>
+      <c r="H56">
+        <v>65</v>
+      </c>
+      <c r="I56">
+        <v>81</v>
+      </c>
+      <c r="J56">
+        <v>80</v>
+      </c>
+      <c r="K56">
+        <v>98.6</v>
+      </c>
+      <c r="L56">
+        <v>98</v>
+      </c>
+      <c r="M56">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45520</v>
+      </c>
+      <c r="C57">
+        <v>1348</v>
+      </c>
+      <c r="D57">
+        <v>33</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>110</v>
+      </c>
+      <c r="H57">
+        <v>69</v>
+      </c>
+      <c r="I57">
+        <v>78</v>
+      </c>
+      <c r="J57">
+        <v>79</v>
+      </c>
+      <c r="K57">
+        <v>98.1</v>
+      </c>
+      <c r="L57">
+        <v>97</v>
+      </c>
+      <c r="M57">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45520</v>
+      </c>
+      <c r="C58">
+        <v>1422</v>
+      </c>
+      <c r="D58">
+        <v>33</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>117</v>
+      </c>
+      <c r="H58">
+        <v>70</v>
+      </c>
+      <c r="I58">
+        <v>84</v>
+      </c>
+      <c r="J58">
+        <v>80</v>
+      </c>
+      <c r="K58">
+        <v>98.1</v>
+      </c>
+      <c r="L58">
+        <v>98</v>
+      </c>
+      <c r="M58">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45527</v>
+      </c>
+      <c r="C59">
+        <v>1325</v>
+      </c>
+      <c r="D59">
+        <v>33</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>123</v>
+      </c>
+      <c r="H59">
+        <v>75</v>
+      </c>
+      <c r="I59">
+        <v>86</v>
+      </c>
+      <c r="J59">
+        <v>95</v>
+      </c>
+      <c r="K59">
+        <v>98.5</v>
+      </c>
+      <c r="L59">
+        <v>100</v>
+      </c>
+      <c r="M59">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M8" xr:uid="{990AF1FE-0AC1-0D46-BD14-82FE1655D1E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3837,7 +5074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB120DF0-DACE-1F43-B331-5D01165AC0D2}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -3845,7 +5082,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3884,22 +5121,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C2">
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <v>84</v>
+      </c>
+      <c r="E2">
         <v>80</v>
       </c>
-      <c r="D2">
-        <v>74</v>
-      </c>
-      <c r="E2">
-        <v>75</v>
-      </c>
       <c r="F2">
-        <v>98</v>
+        <v>98.1</v>
       </c>
       <c r="G2">
         <v>98</v>
@@ -3908,8 +5145,8 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <f>-1161.09317097566 + (6.21616251484059 * A2) + (-0.684470938464074 * B2) + (-0.875249404343267 * C2) + (0.0374562323582727 * D2) + (0.722001329276396 * E2) + (1.29560585057413 * F2) + (12.7428871318836 * G2)</f>
-        <v>125.03215287732951</v>
+        <f>-492.566125352291 + (3.18091778559087 * A2) + (-1.29019127837637 * B2) + (-0.320606203976334 * C2) + (0.304650378370321 * D2) + (0.654048923280358 * E2) + (2.27519306711539 * F2) + (5.17272239658864 * G2)</f>
+        <v>142.07684119457235</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -3934,7 +5171,7 @@
     <row r="6" spans="1:8">
       <c r="A6">
         <f>182.035975740606 + (-1.33959284114569 * B2) + (1.23362432658027 * C2) + (0.497141246478476 * D2) + (0.251212122695351 * E2) + (-2.00127014384241 * F2) + (1.58276298337347 * G2)</f>
-        <v>121.19451223369035</v>
+        <v>132.30032196665886</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -3959,7 +5196,7 @@
     <row r="8" spans="1:8">
       <c r="A8">
         <f>160.471049409302 + (0.415242007572252 * E2) + (-1.29953304371339 * F2) + (0.704982888995284 * G2)</f>
-        <v>133.34828481484652</v>
+        <v>135.29454154833644</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -3984,7 +5221,7 @@
     <row r="10" spans="1:8" ht="17">
       <c r="A10">
         <f>13.0053925044525 + (0.421023503571367 * E2) + (0.911398972691588 * G2)</f>
-        <v>133.89925459608065</v>
+        <v>136.00437211393748</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -4005,7 +5242,7 @@
     <row r="12" spans="1:8">
       <c r="A12">
         <f>121.74094222609 + (6.47709716026548 * A2)</f>
-        <v>134.69513654662097</v>
+        <v>121.74094222609</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -4022,7 +5259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C77AE60-8F81-D243-B3E7-69BF1CE319B2}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -4108,7 +5345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD3305F-9573-F84A-A1C5-F37085D02126}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -4222,7 +5459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716FC905-6156-7D46-BA6F-D64140BE7943}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -4299,7 +5536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5680C9-9048-0541-9822-FF3CBE345898}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -4376,7 +5613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071287CB-E750-7E4E-808D-2BD464F134BF}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -4392,7 +5629,7 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <f>AVERAGE('Multi Linear Regression'!A4,'ridge regression'!A6,'polynomial regression'!A5,'lasso regression'!A5,'elastic net regression'!A5)</f>
-        <v>-14432.516468907201</v>
+        <v>-14429.107531243755</v>
       </c>
     </row>
   </sheetData>
@@ -4400,7 +5637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C1401-265E-EE41-947A-D7B34EA2F344}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -4501,142 +5738,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A81BC75-8DDF-4D44-B6C9-EF8D213474D2}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="9">
-        <v>74.8</v>
-      </c>
-      <c r="B2">
-        <f>AVERAGE($A$2:$A$13)</f>
-        <v>62.641666666666673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="9">
-        <v>67.2</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B13" si="0">AVERAGE($A$2:$A$13)</f>
-        <v>62.641666666666673</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9">
-        <v>69.7</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>62.641666666666673</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="9">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>62.641666666666673</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="9">
-        <v>57.1</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>62.641666666666673</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="9">
-        <v>62.4</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>62.641666666666673</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9">
-        <v>63.3</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>62.641666666666673</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9">
-        <v>71.5</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>62.641666666666673</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="9">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>62.641666666666673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="9">
-        <v>60.6</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>62.641666666666673</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>62.641666666666673</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="9">
-        <v>50.7</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>62.641666666666673</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18">
-        <f xml:space="preserve"> 0.3522 + 0.1533 * A11</f>
-        <v>9.6421799999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>